--- a/docs/odh/shr-core-Dosage-model.xlsx
+++ b/docs/odh/shr-core-Dosage-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="84">
   <si>
     <t>Path</t>
   </si>
@@ -137,99 +137,91 @@
     <t>The dosage of the medication. The data structure is flexible and can describe a dosage prescribed, administered, or reported.</t>
   </si>
   <si>
-    <t>shr-core-Dosage-model.doseAmount[x]</t>
+    <t>shr-core-Dosage-model.doseSequenceNumber</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The amount of medication taken per dose, as a quantity or range. Relative dose (e.g., per kg body weight or surface area) are indicated by specifying appropriate units (e.g., mg/kg or mg/m2 etc).</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.timingOfDoses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing-model {[]} {[]}
+    <t xml:space="preserve">integer {[]} {[]}
 </t>
   </si>
   <si>
-    <t>When doses of medication should be administered.</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.asNeededIndicator[x]</t>
+    <t>Dose number within series.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.instructionText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The directions (signetur) on the drug prescription or dispensing record.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.instructionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Coded instructions, e.g., 'with meals'.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer-oriented instructions.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Timing-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A timing schedule that specifies an event that may occur multiple times.</t>
+  </si>
+  <si>
+    <t>A timing schedule that specifies an event that may occur multiple times.
+Timing offers a choice of multiple OccurrenceTime (used is used to specify specific times), or recurrence patterns.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.asNeeded[x]</t>
   </si>
   <si>
     <t>boolean {[]} {[]}
 Coding {[]} {[]}</t>
   </si>
   <si>
-    <t>Indicates the pre-condition under which the drug or intervention should be used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1883728
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.asNeededIndicatorCoding</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.dosageInstructionsText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The directions (signetur) on the drug prescription or dispensing record.</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.additionalDosageInstruction</t>
-  </si>
-  <si>
-    <t>Supplemental instructions - e.g. 'with meals'.</t>
+    <t>Preconditions for service, either 'true' indicating to be performed if needed, or a code indicating the pre-condition for performing the service. For example 'pain', 'on flare-up', etc.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.administrationSite</t>
+  </si>
+  <si>
+    <t>The anatomic site at which the medication applied.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.routeIntoBody</t>
+  </si>
+  <si>
+    <t>The way a substance enters an organism after contact, particularly, the route of drug administration.</t>
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1644714
-</t>
-  </si>
-  <si>
-    <t>shr-core-Dosage-model.routeIntoBody</t>
-  </si>
-  <si>
-    <t>The way a substance enters an organism after contact, particularly, the route of drug administration.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -239,47 +231,52 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Dosage-model.dosageMethod</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
+    <t>shr-core-Dosage-model.method</t>
+  </si>
+  <si>
+    <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547585
+    <t>shr-core-Dosage-model.doseAndRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DoseAndRate-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Dosage-model.dosageBodyLocation</t>
-  </si>
-  <si>
-    <t>The anatomic site at which medical intervention is applied.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0229986
+    <t>The amount of medication administered.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Ratio-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Dosage-model.maximumDosePerTimePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ratio-model {[]} {[]}
+    <t>The maximum amount of a medication to be taken in a given period of time (e.g., no more than x in any 24-hour period)</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The maximum amount of a medication to be taken in a given period of time (e.g., no more than x in any 24-hour period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0456603
-</t>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>shr-core-Dosage-model.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -437,8 +434,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -447,7 +444,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="174.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="160.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -461,13 +458,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="47.13671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -883,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>36</v>
@@ -928,26 +925,26 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>47</v>
@@ -956,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>36</v>
@@ -967,17 +964,15 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>41</v>
@@ -992,13 +987,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1025,11 +1020,13 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y6" t="s" s="2">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>36</v>
@@ -1047,7 +1044,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1064,7 +1061,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1087,13 +1084,13 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1144,7 +1141,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1172,7 +1169,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1184,13 +1181,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1217,14 +1214,16 @@
         <v>36</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="X8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y8" t="s" s="2">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>36</v>
@@ -1239,13 +1238,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1256,7 +1255,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1279,13 +1278,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1312,14 +1311,14 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1334,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1351,7 +1350,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1374,13 +1373,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1407,14 +1406,14 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1429,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1446,7 +1445,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1469,13 +1468,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1502,14 +1501,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1524,7 +1523,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1541,7 +1540,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1564,13 +1563,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1606,38 +1605,329 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI12" t="s" s="2">
+      <c r="L15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI12">
+  <autoFilter ref="A1:AI15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1647,7 +1937,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI11">
+  <conditionalFormatting sqref="A2:AI14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
